--- a/SDS节日节气专项测试/CalendarList_Audi_2023_CT.xlsx
+++ b/SDS节日节气专项测试/CalendarList_Audi_2023_CT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12930"/>
+    <workbookView windowWidth="19830" windowHeight="8070" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="中国节日" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="185">
   <si>
     <t>节日</t>
   </si>
@@ -45,6 +45,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>2023</t>
     </r>
     <r>
@@ -163,6 +168,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>2023</t>
     </r>
     <r>
@@ -392,6 +402,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
       <t>2023</t>
     </r>
     <r>
@@ -492,6 +508,107 @@
     <t>2023年的立夏是什么时候</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>2023</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="0"/>
+      </rPr>
+      <t>年立夏系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>2023</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="0"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="0"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="0"/>
+      </rPr>
+      <t>日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="0"/>
+      </rPr>
+      <t>農曆三月十七</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
     <t>2023年立夏系2023年5月6日, 農曆三月十七.</t>
   </si>
   <si>
@@ -501,6 +618,107 @@
     <t>2023年的小满是什么时候</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>2023</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="0"/>
+      </rPr>
+      <t>年小滿系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>2023</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="0"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="0"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="0"/>
+      </rPr>
+      <t>日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="0"/>
+      </rPr>
+      <t>農曆四月初三</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
     <t>2023年小滿系2023年5月21日, 農曆四月初三.</t>
   </si>
   <si>
@@ -657,6 +875,123 @@
     <t>2023年婦女節系2023年3月8日, 農曆二月十七.</t>
   </si>
   <si>
+    <t>儿童节</t>
+  </si>
+  <si>
+    <t>2023年的儿童节是什么时候</t>
+  </si>
+  <si>
+    <t>2023年兒童節系2023年6月1日, 農曆四月十四.</t>
+  </si>
+  <si>
+    <t>情人节</t>
+  </si>
+  <si>
+    <t>2023年的情人节是什么时候</t>
+  </si>
+  <si>
+    <t>2023年情人節系2023年2月14日, 農曆正月二十四.</t>
+  </si>
+  <si>
+    <t>愚人节</t>
+  </si>
+  <si>
+    <t>2023年的愚人节是什么时候</t>
+  </si>
+  <si>
+    <t>2023年愚人節系2023年4月1日, 農曆二月十一.</t>
+  </si>
+  <si>
+    <t>平安夜</t>
+  </si>
+  <si>
+    <t>2023年的平安夜是什么时候</t>
+  </si>
+  <si>
+    <t>2023年平安夜系2023年12月24日, 農曆十一月十二.</t>
+  </si>
+  <si>
+    <t>圣诞节</t>
+  </si>
+  <si>
+    <t>2023年的圣诞节是什么时候</t>
+  </si>
+  <si>
+    <t>2023年聖誕節系2023年12月25日, 農曆十一月十三.</t>
+  </si>
+  <si>
+    <t>复活节</t>
+  </si>
+  <si>
+    <t>2023年的复活节是什么时候</t>
+  </si>
+  <si>
+    <t>2023年復活節系2023年4月9日, 農曆二月十九.</t>
+  </si>
+  <si>
+    <t>母亲节</t>
+  </si>
+  <si>
+    <t>2023年的母亲节是什么时候</t>
+  </si>
+  <si>
+    <t>2023年母親節系2023年5月14日, 農曆三月二十五.</t>
+  </si>
+  <si>
+    <t>父亲节</t>
+  </si>
+  <si>
+    <t>2023年的父亲节是什么时候</t>
+  </si>
+  <si>
+    <t>2023年父親節系2023年6月18日, 農曆五月初一.</t>
+  </si>
+  <si>
+    <t>万圣节</t>
+  </si>
+  <si>
+    <t>2023年的万圣节是什么时候</t>
+  </si>
+  <si>
+    <t>2023年萬聖節系2023年10月31日, 農曆九月十七.</t>
+  </si>
+  <si>
+    <t>感恩节</t>
+  </si>
+  <si>
+    <t>2023年的感恩节是什么时候</t>
+  </si>
+  <si>
+    <t>2023年感恩節系2023年11月23日, 農曆十月十一.</t>
+  </si>
+  <si>
+    <t>教师节</t>
+  </si>
+  <si>
+    <t>2023年的教师节是什么时候</t>
+  </si>
+  <si>
+    <t>2023年教師節系2023年9月10日, 農曆七月二十六.</t>
+  </si>
+  <si>
+    <t>护士节</t>
+  </si>
+  <si>
+    <t>2023年的护士节是什么时候</t>
+  </si>
+  <si>
+    <t>2023年護士節系2023年5月12日, 農曆三月二十三.</t>
+  </si>
+  <si>
+    <t>植树节</t>
+  </si>
+  <si>
+    <t>2023年的植树节是什么时候</t>
+  </si>
+  <si>
+    <t>2023年植樹節系2023年3月12日, 農曆二月二十一.</t>
+  </si>
+  <si>
     <t>青年节</t>
   </si>
   <si>
@@ -666,123 +1001,6 @@
     <t>2023年青年節系2023年5月4日, 農曆三月十五.</t>
   </si>
   <si>
-    <t>儿童节</t>
-  </si>
-  <si>
-    <t>2023年的儿童节是什么时候</t>
-  </si>
-  <si>
-    <t>2023年兒童節系2023年6月1日, 農曆四月十四.</t>
-  </si>
-  <si>
-    <t>情人节</t>
-  </si>
-  <si>
-    <t>2023年的情人节是什么时候</t>
-  </si>
-  <si>
-    <t>2023年情人節系2023年2月14日, 農曆正月二十四.</t>
-  </si>
-  <si>
-    <t>愚人节</t>
-  </si>
-  <si>
-    <t>2023年的愚人节是什么时候</t>
-  </si>
-  <si>
-    <t>2023年愚人節系2023年4月1日, 農曆二月十一.</t>
-  </si>
-  <si>
-    <t>平安夜</t>
-  </si>
-  <si>
-    <t>2023年的平安夜是什么时候</t>
-  </si>
-  <si>
-    <t>2023年平安夜系2023年12月24日, 農曆十一月十二.</t>
-  </si>
-  <si>
-    <t>圣诞节</t>
-  </si>
-  <si>
-    <t>2023年的圣诞节是什么时候</t>
-  </si>
-  <si>
-    <t>2023年聖誕節系2023年12月25日, 農曆十一月十三.</t>
-  </si>
-  <si>
-    <t>复活节</t>
-  </si>
-  <si>
-    <t>2023年的复活节是什么时候</t>
-  </si>
-  <si>
-    <t>2023年復活節系2023年4月9日, 農曆二月十九.</t>
-  </si>
-  <si>
-    <t>母亲节</t>
-  </si>
-  <si>
-    <t>2023年的母亲节是什么时候</t>
-  </si>
-  <si>
-    <t>2023年母親節系2023年5月14日, 農曆三月二十五.</t>
-  </si>
-  <si>
-    <t>父亲节</t>
-  </si>
-  <si>
-    <t>2023年的父亲节是什么时候</t>
-  </si>
-  <si>
-    <t>2023年父親節系2023年6月18日, 農曆五月初一.</t>
-  </si>
-  <si>
-    <t>万圣节</t>
-  </si>
-  <si>
-    <t>2023年的万圣节是什么时候</t>
-  </si>
-  <si>
-    <t>2023年萬聖節系2023年10月31日, 農曆九月十七.</t>
-  </si>
-  <si>
-    <t>感恩节</t>
-  </si>
-  <si>
-    <t>2023年的感恩节是什么时候</t>
-  </si>
-  <si>
-    <t>2023年感恩節系2023年11月23日, 農曆十月十一.</t>
-  </si>
-  <si>
-    <t>教师节</t>
-  </si>
-  <si>
-    <t>2023年的教师节是什么时候</t>
-  </si>
-  <si>
-    <t>2023年教師節系2023年9月10日, 農曆七月二十六.</t>
-  </si>
-  <si>
-    <t>护士节</t>
-  </si>
-  <si>
-    <t>2023年的护士节是什么时候</t>
-  </si>
-  <si>
-    <t>2023年護士節系2023年5月12日, 農曆三月二十三.</t>
-  </si>
-  <si>
-    <t>植树节</t>
-  </si>
-  <si>
-    <t>2023年的植树节是什么时候</t>
-  </si>
-  <si>
-    <t>2023年植樹節系2023年3月12日, 農曆二月二十一.</t>
-  </si>
-  <si>
     <t>光棍节</t>
   </si>
   <si>
@@ -792,7 +1010,17 @@
     <t>2023年光棍節系2023年11月11日, 農曆九月二十八.</t>
   </si>
   <si>
-    <t>2023年节日节气测试</t>
+    <r>
+      <t>2023</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="0"/>
+      </rPr>
+      <t>年节日（粤语）</t>
+    </r>
   </si>
   <si>
     <t>CLASS</t>
@@ -830,12 +1058,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="34">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -911,8 +1139,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -920,21 +1149,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -948,40 +1178,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1003,24 +1201,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1034,17 +1238,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Droid Sans Fallback"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1109,7 +1342,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1121,19 +1492,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1145,145 +1516,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1336,32 +1569,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1377,15 +1598,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1425,153 +1637,174 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="8">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0">
@@ -1581,9 +1814,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1673,9 +1906,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2022,7 +2252,7 @@
   </sheetPr>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -2059,10 +2289,10 @@
       <c r="B2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="16" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="18" t="str">
@@ -2131,7 +2361,7 @@
       <c r="B6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="16" t="s">
@@ -2221,7 +2451,7 @@
       <c r="B11" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="16" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="16" t="s">
@@ -2349,7 +2579,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2486,36 +2716,36 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" ht="16.5" spans="1:5">
       <c r="A8" s="30" t="s">
         <v>70</v>
       </c>
       <c r="B8" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="32" t="s">
         <v>72</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E8" s="18" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" ht="16.5" spans="1:5">
       <c r="A9" s="30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="31" t="s">
         <v>75</v>
       </c>
+      <c r="C9" s="32" t="s">
+        <v>76</v>
+      </c>
       <c r="D9" s="31" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E9" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2524,16 +2754,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="30" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E10" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2542,16 +2772,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="30" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E11" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2560,16 +2790,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="30" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E12" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2578,16 +2808,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="30" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E13" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2596,16 +2826,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="30" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E14" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2614,16 +2844,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="30" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E15" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2632,16 +2862,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="30" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E16" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2650,16 +2880,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="30" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E17" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2668,16 +2898,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="30" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E18" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2686,16 +2916,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="30" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E19" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2704,16 +2934,16 @@
     </row>
     <row r="20" ht="16.5" customHeight="1" spans="1:5">
       <c r="A20" s="30" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E20" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2722,16 +2952,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="30" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E21" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2740,16 +2970,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="30" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E22" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2758,16 +2988,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="30" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E23" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2776,16 +3006,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="30" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E24" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2794,16 +3024,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="30" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E25" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2834,10 +3064,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2868,52 +3098,52 @@
     </row>
     <row r="2" ht="16.5" customHeight="1" spans="1:5">
       <c r="A2" s="23" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E2" s="18" t="str">
-        <f t="shared" ref="E2:E13" si="0">IF(C2=D2,"PASS","FAIL")</f>
+        <f>IF(C2=D2,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="3" ht="16.5" customHeight="1" spans="1:5">
       <c r="A3" s="23" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E3" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E3:E12" si="0">IF(C3=D3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1" spans="1:5">
       <c r="A4" s="23" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E4" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2922,16 +3152,16 @@
     </row>
     <row r="5" ht="16.5" customHeight="1" spans="1:5">
       <c r="A5" s="23" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E5" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2940,16 +3170,16 @@
     </row>
     <row r="6" ht="16.5" customHeight="1" spans="1:5">
       <c r="A6" s="23" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E6" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2958,16 +3188,16 @@
     </row>
     <row r="7" ht="16.5" customHeight="1" spans="1:5">
       <c r="A7" s="23" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E7" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2976,16 +3206,16 @@
     </row>
     <row r="8" ht="16.5" customHeight="1" spans="1:5">
       <c r="A8" s="23" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E8" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2994,16 +3224,16 @@
     </row>
     <row r="9" ht="16.5" customHeight="1" spans="1:5">
       <c r="A9" s="23" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E9" s="18" t="str">
         <f t="shared" si="0"/>
@@ -3012,16 +3242,16 @@
     </row>
     <row r="10" ht="16.5" customHeight="1" spans="1:5">
       <c r="A10" s="23" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E10" s="18" t="str">
         <f t="shared" si="0"/>
@@ -3030,16 +3260,16 @@
     </row>
     <row r="11" ht="16.5" customHeight="1" spans="1:5">
       <c r="A11" s="23" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E11" s="18" t="str">
         <f t="shared" si="0"/>
@@ -3047,43 +3277,25 @@
       </c>
     </row>
     <row r="12" ht="16.5" customHeight="1" spans="1:5">
-      <c r="A12" s="23" t="s">
-        <v>154</v>
+      <c r="A12" s="25" t="s">
+        <v>156</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E12" s="18" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="13" ht="16.5" customHeight="1" spans="1:5">
-      <c r="A13" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="E13" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E13">
+  <conditionalFormatting sqref="E2:E12">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
@@ -3107,7 +3319,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
@@ -3137,16 +3349,16 @@
     </row>
     <row r="2" ht="16.5" customHeight="1" spans="1:6">
       <c r="A2" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="C2" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>162</v>
-      </c>
       <c r="D2" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E2" s="18" t="str">
         <f t="shared" ref="E2:E7" si="0">IF(C2=D2,"PASS","FAIL")</f>
@@ -3156,16 +3368,16 @@
     </row>
     <row r="3" ht="16.5" customHeight="1" spans="1:6">
       <c r="A3" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="C3" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>165</v>
-      </c>
       <c r="D3" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E3" s="18" t="str">
         <f t="shared" si="0"/>
@@ -3175,16 +3387,16 @@
     </row>
     <row r="4" ht="16.5" customHeight="1" spans="1:6">
       <c r="A4" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="C4" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>138</v>
-      </c>
       <c r="D4" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E4" s="18" t="str">
         <f t="shared" si="0"/>
@@ -3194,16 +3406,16 @@
     </row>
     <row r="5" ht="16.5" customHeight="1" spans="1:6">
       <c r="A5" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="C5" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>168</v>
-      </c>
       <c r="D5" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E5" s="18" t="str">
         <f t="shared" si="0"/>
@@ -3213,16 +3425,16 @@
     </row>
     <row r="6" ht="16.5" customHeight="1" spans="1:6">
       <c r="A6" s="15" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="E6" s="18" t="str">
         <f t="shared" si="0"/>
@@ -3232,16 +3444,16 @@
     </row>
     <row r="7" ht="16.5" customHeight="1" spans="1:6">
       <c r="A7" s="15" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E7" s="18" t="str">
         <f t="shared" si="0"/>
@@ -3268,8 +3480,8 @@
   <sheetPr/>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
@@ -3280,26 +3492,26 @@
   <sheetData>
     <row r="1" ht="19" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B3" s="4">
         <v>15</v>
@@ -3315,14 +3527,14 @@
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B4" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="4">
         <f>COUNTIF(西方节日!E:E,"PASS")</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="4">
         <f>COUNTIF(西方节日!E:E,"FAIL")</f>
@@ -3331,7 +3543,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B5" s="4">
         <v>24</v>
@@ -3347,7 +3559,7 @@
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B6" s="4">
         <v>6</v>
@@ -3363,15 +3575,15 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B7" s="4">
         <f>SUM(B3:B6)</f>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="4">
         <f>SUM(C3:C6)</f>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="4">
         <f>SUM(D3:D6)</f>
@@ -3380,7 +3592,7 @@
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:4">
       <c r="A8" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B8" s="8">
         <f>C7/B7</f>
